--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ccl24-Ccr3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ccl24-Ccr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,13 +82,13 @@
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>Ccl24</t>
   </si>
   <si>
     <t>Ccr3</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,123 +519,557 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.11600171815861</v>
+        <v>1.319914</v>
       </c>
       <c r="H2">
-        <v>1.11600171815861</v>
+        <v>3.959742</v>
       </c>
       <c r="I2">
-        <v>0.4578079742096075</v>
+        <v>0.430067032920844</v>
       </c>
       <c r="J2">
-        <v>0.4578079742096075</v>
+        <v>0.4300670329208439</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.910418709603816</v>
+        <v>0.1029326666666667</v>
       </c>
       <c r="N2">
-        <v>0.910418709603816</v>
+        <v>0.308798</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.0757654494554323</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.07576544945543232</v>
       </c>
       <c r="Q2">
-        <v>1.016028844161603</v>
+        <v>0.1358622677906667</v>
       </c>
       <c r="R2">
-        <v>1.016028844161603</v>
+        <v>1.222760410116</v>
       </c>
       <c r="S2">
-        <v>0.4578079742096075</v>
+        <v>0.03258422204521194</v>
       </c>
       <c r="T2">
-        <v>0.4578079742096075</v>
+        <v>0.03258422204521195</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.32170531410826</v>
+        <v>1.319914</v>
       </c>
       <c r="H3">
-        <v>1.32170531410826</v>
+        <v>3.959742</v>
       </c>
       <c r="I3">
-        <v>0.5421920257903926</v>
+        <v>0.430067032920844</v>
       </c>
       <c r="J3">
-        <v>0.5421920257903926</v>
+        <v>0.4300670329208439</v>
       </c>
       <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M3">
+        <v>0.24544</v>
+      </c>
+      <c r="N3">
+        <v>0.73632</v>
+      </c>
+      <c r="O3">
+        <v>0.1806605474874316</v>
+      </c>
+      <c r="P3">
+        <v>0.1806605474874316</v>
+      </c>
+      <c r="Q3">
+        <v>0.32395969216</v>
+      </c>
+      <c r="R3">
+        <v>2.91563722944</v>
+      </c>
+      <c r="S3">
+        <v>0.07769614562377496</v>
+      </c>
+      <c r="T3">
+        <v>0.07769614562377494</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="L3">
+      <c r="G4">
+        <v>1.319914</v>
+      </c>
+      <c r="H4">
+        <v>3.959742</v>
+      </c>
+      <c r="I4">
+        <v>0.430067032920844</v>
+      </c>
+      <c r="J4">
+        <v>0.4300670329208439</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
         <v>1</v>
       </c>
-      <c r="M3">
-        <v>0.910418709603816</v>
-      </c>
-      <c r="N3">
-        <v>0.910418709603816</v>
-      </c>
-      <c r="O3">
+      <c r="M4">
+        <v>1.010197333333333</v>
+      </c>
+      <c r="N4">
+        <v>3.030592</v>
+      </c>
+      <c r="O4">
+        <v>0.7435740030571361</v>
+      </c>
+      <c r="P4">
+        <v>0.7435740030571361</v>
+      </c>
+      <c r="Q4">
+        <v>1.333373603029333</v>
+      </c>
+      <c r="R4">
+        <v>12.000362427264</v>
+      </c>
+      <c r="S4">
+        <v>0.3197866652518571</v>
+      </c>
+      <c r="T4">
+        <v>0.319786665251857</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="P3">
+      <c r="G5">
+        <v>1.482823666666667</v>
+      </c>
+      <c r="H5">
+        <v>4.448471000000001</v>
+      </c>
+      <c r="I5">
+        <v>0.4831478222582228</v>
+      </c>
+      <c r="J5">
+        <v>0.4831478222582228</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.1029326666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.308798</v>
+      </c>
+      <c r="O5">
+        <v>0.0757654494554323</v>
+      </c>
+      <c r="P5">
+        <v>0.07576544945543232</v>
+      </c>
+      <c r="Q5">
+        <v>0.1526309942064445</v>
+      </c>
+      <c r="R5">
+        <v>1.373678947858</v>
+      </c>
+      <c r="S5">
+        <v>0.03660591190680757</v>
+      </c>
+      <c r="T5">
+        <v>0.03660591190680758</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="Q3">
-        <v>1.203305246546948</v>
-      </c>
-      <c r="R3">
-        <v>1.203305246546948</v>
-      </c>
-      <c r="S3">
-        <v>0.5421920257903926</v>
-      </c>
-      <c r="T3">
-        <v>0.5421920257903926</v>
+      <c r="G6">
+        <v>1.482823666666667</v>
+      </c>
+      <c r="H6">
+        <v>4.448471000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.4831478222582228</v>
+      </c>
+      <c r="J6">
+        <v>0.4831478222582228</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.24544</v>
+      </c>
+      <c r="N6">
+        <v>0.73632</v>
+      </c>
+      <c r="O6">
+        <v>0.1806605474874316</v>
+      </c>
+      <c r="P6">
+        <v>0.1806605474874316</v>
+      </c>
+      <c r="Q6">
+        <v>0.3639442407466667</v>
+      </c>
+      <c r="R6">
+        <v>3.27549816672</v>
+      </c>
+      <c r="S6">
+        <v>0.08728575008653085</v>
+      </c>
+      <c r="T6">
+        <v>0.08728575008653085</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.482823666666667</v>
+      </c>
+      <c r="H7">
+        <v>4.448471000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.4831478222582228</v>
+      </c>
+      <c r="J7">
+        <v>0.4831478222582228</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.010197333333333</v>
+      </c>
+      <c r="N7">
+        <v>3.030592</v>
+      </c>
+      <c r="O7">
+        <v>0.7435740030571361</v>
+      </c>
+      <c r="P7">
+        <v>0.7435740030571361</v>
+      </c>
+      <c r="Q7">
+        <v>1.497944513870222</v>
+      </c>
+      <c r="R7">
+        <v>13.481500624832</v>
+      </c>
+      <c r="S7">
+        <v>0.3592561602648844</v>
+      </c>
+      <c r="T7">
+        <v>0.3592561602648844</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.2663513333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.799054</v>
+      </c>
+      <c r="I8">
+        <v>0.08678514482093329</v>
+      </c>
+      <c r="J8">
+        <v>0.0867851448209333</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.1029326666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.308798</v>
+      </c>
+      <c r="O8">
+        <v>0.0757654494554323</v>
+      </c>
+      <c r="P8">
+        <v>0.07576544945543232</v>
+      </c>
+      <c r="Q8">
+        <v>0.02741625301022222</v>
+      </c>
+      <c r="R8">
+        <v>0.246746277092</v>
+      </c>
+      <c r="S8">
+        <v>0.006575315503412793</v>
+      </c>
+      <c r="T8">
+        <v>0.006575315503412796</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.2663513333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.799054</v>
+      </c>
+      <c r="I9">
+        <v>0.08678514482093329</v>
+      </c>
+      <c r="J9">
+        <v>0.0867851448209333</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.24544</v>
+      </c>
+      <c r="N9">
+        <v>0.73632</v>
+      </c>
+      <c r="O9">
+        <v>0.1806605474874316</v>
+      </c>
+      <c r="P9">
+        <v>0.1806605474874316</v>
+      </c>
+      <c r="Q9">
+        <v>0.06537327125333332</v>
+      </c>
+      <c r="R9">
+        <v>0.5883594412800001</v>
+      </c>
+      <c r="S9">
+        <v>0.01567865177712585</v>
+      </c>
+      <c r="T9">
+        <v>0.01567865177712585</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.2663513333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.799054</v>
+      </c>
+      <c r="I10">
+        <v>0.08678514482093329</v>
+      </c>
+      <c r="J10">
+        <v>0.0867851448209333</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.010197333333333</v>
+      </c>
+      <c r="N10">
+        <v>3.030592</v>
+      </c>
+      <c r="O10">
+        <v>0.7435740030571361</v>
+      </c>
+      <c r="P10">
+        <v>0.7435740030571361</v>
+      </c>
+      <c r="Q10">
+        <v>0.2690674066631111</v>
+      </c>
+      <c r="R10">
+        <v>2.421606659968</v>
+      </c>
+      <c r="S10">
+        <v>0.06453117754039464</v>
+      </c>
+      <c r="T10">
+        <v>0.06453117754039465</v>
       </c>
     </row>
   </sheetData>
